--- a/Data Collection/Data_Management_.xlsx
+++ b/Data Collection/Data_Management_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afrizaloky\Katalon Studio\Assignment Katalon\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFBF66F-96F2-4569-B89A-5E78975A78D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA268B7-2AB0-4E09-A3F7-04A2E646AE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="158">
   <si>
     <t>Title</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>Alim-mimi</t>
+  </si>
+  <si>
+    <t>Mr-Mrs-Mr-Ms</t>
   </si>
 </sst>
 </file>
@@ -3000,7 +3006,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3086,7 +3092,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>145</v>
@@ -3127,7 +3133,7 @@
         <v>134</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>136</v>

--- a/Data Collection/Data_Management_.xlsx
+++ b/Data Collection/Data_Management_.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afrizaloky\Katalon Studio\Assignment Katalon\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA268B7-2AB0-4E09-A3F7-04A2E646AE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B98CB3-85BE-4379-957E-1C1D1EBD38F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataCustomer" sheetId="1" r:id="rId1"/>
     <sheet name="Test" sheetId="4" r:id="rId2"/>
-    <sheet name="FlightInformation" sheetId="2" r:id="rId3"/>
-    <sheet name="DataSignUp" sheetId="3" r:id="rId4"/>
+    <sheet name="ALL" sheetId="5" r:id="rId3"/>
+    <sheet name="FlightInformation" sheetId="2" r:id="rId4"/>
+    <sheet name="DataSignUp" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="175">
   <si>
     <t>Title</t>
   </si>
@@ -244,18 +245,6 @@
     <t>Tahun iseng</t>
   </si>
   <si>
-    <t>Mr,Mrs</t>
-  </si>
-  <si>
-    <t>Alim,Rani</t>
-  </si>
-  <si>
-    <t>Mugiwara,Isyani</t>
-  </si>
-  <si>
-    <t>ID,US</t>
-  </si>
-  <si>
     <t>Adults</t>
   </si>
   <si>
@@ -497,6 +486,69 @@
   </si>
   <si>
     <t>Mr-Mrs-Mr-Ms</t>
+  </si>
+  <si>
+    <t>Mr-Mr-Mr</t>
+  </si>
+  <si>
+    <t>Bastoto Aldinari-Gery-Risky</t>
+  </si>
+  <si>
+    <t>Ginting-Rama-Fajar</t>
+  </si>
+  <si>
+    <t>ID-US-CN</t>
+  </si>
+  <si>
+    <t>180710014-10810108</t>
+  </si>
+  <si>
+    <t>07-08-09</t>
+  </si>
+  <si>
+    <t>31-28-21</t>
+  </si>
+  <si>
+    <t>2000-1999-1991</t>
+  </si>
+  <si>
+    <t>12-01-03</t>
+  </si>
+  <si>
+    <t>30-22-21</t>
+  </si>
+  <si>
+    <t>2021-2024-2025</t>
+  </si>
+  <si>
+    <t>Miss-Mr</t>
+  </si>
+  <si>
+    <t>Ratu-Alim</t>
+  </si>
+  <si>
+    <t>Latifah-Mugiwara</t>
+  </si>
+  <si>
+    <t>180708872-10121012</t>
+  </si>
+  <si>
+    <t>02-01</t>
+  </si>
+  <si>
+    <t>20-21</t>
+  </si>
+  <si>
+    <t>1998-1991</t>
+  </si>
+  <si>
+    <t>12-10</t>
+  </si>
+  <si>
+    <t>28-21</t>
+  </si>
+  <si>
+    <t>2022-2024</t>
   </si>
 </sst>
 </file>
@@ -793,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L997"/>
+  <dimension ref="A1:L995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A32" sqref="A32:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -822,34 +874,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1</v>
@@ -872,7 +924,7 @@
         <v>180710014</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G2" s="8">
         <v>31</v>
@@ -1995,1006 +2047,1004 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="5">
-        <v>100000.1212121</v>
-      </c>
-      <c r="F33" s="5">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="G33" s="5">
-        <v>18.2</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1999.1991</v>
-      </c>
-      <c r="I33" s="5">
-        <v>10.18</v>
-      </c>
-      <c r="J33" s="5">
-        <v>12.13</v>
-      </c>
-      <c r="K33" s="5">
-        <v>2025.2026000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3005,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D189398-AC14-472A-95D4-A13A409E1577}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3019,72 +3069,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="L2" s="4">
         <v>2</v>
@@ -3092,75 +3142,75 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="L4" s="4">
         <v>2</v>
@@ -3172,11 +3222,354 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93896A42-6ECB-4B7B-8825-A41A71026945}">
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>44476</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>180709969</v>
+      </c>
+      <c r="F4" s="5">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="5">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2021</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
+        <v>180709878</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>44481</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3193,51 +3586,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G2" s="2">
         <v>2</v>
@@ -3251,19 +3644,19 @@
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F3" s="3">
         <v>44476</v>
@@ -3280,22 +3673,22 @@
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
@@ -3309,19 +3702,19 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F5" s="3">
         <v>44481</v>
@@ -4338,7 +4731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4353,102 +4746,102 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2">
         <v>8798132</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2">
         <v>2121121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2">
         <v>12122121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
         <v>11212111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Data Collection/Data_Management_.xlsx
+++ b/Data Collection/Data_Management_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afrizaloky\Katalon Studio\Assignment Katalon\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B98CB3-85BE-4379-957E-1C1D1EBD38F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A0FBDA-5721-4647-9678-4BA667E380E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="175">
   <si>
     <t>Title</t>
   </si>
@@ -848,7 +848,7 @@
   <dimension ref="A1:L995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:K32"/>
+      <selection activeCell="L1" sqref="L1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3226,7 +3226,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3295,8 +3295,23 @@
       <c r="T1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>1</v>
+      <c r="U1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3360,8 +3375,23 @@
       <c r="T2" s="2">
         <v>0</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>6</v>
+      <c r="U2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>8798132</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3425,8 +3455,23 @@
       <c r="T3" s="2">
         <v>0</v>
       </c>
-      <c r="Z3" s="5" t="s">
-        <v>6</v>
+      <c r="U3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>2121121</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3490,8 +3535,23 @@
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>6</v>
+      <c r="U4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>12122121</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3555,8 +3615,23 @@
       <c r="T5" s="2">
         <v>0</v>
       </c>
-      <c r="Z5" s="5" t="s">
-        <v>6</v>
+      <c r="U5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>11212111</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4739,7 +4814,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Data Collection/Data_Management_.xlsx
+++ b/Data Collection/Data_Management_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afrizaloky\Katalon Studio\Assignment Katalon\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A0FBDA-5721-4647-9678-4BA667E380E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BAB11B-45B1-4C52-83D1-3193E6A48AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataCustomer" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="185">
   <si>
     <t>Title</t>
   </si>
@@ -470,9 +470,6 @@
     <t>1999-1991-1992-1993</t>
   </si>
   <si>
-    <t>10-18-10-11</t>
-  </si>
-  <si>
     <t>12-13-12-14</t>
   </si>
   <si>
@@ -482,12 +479,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>Alim-mimi</t>
-  </si>
-  <si>
-    <t>Mr-Mrs-Mr-Ms</t>
-  </si>
-  <si>
     <t>Mr-Mr-Mr</t>
   </si>
   <si>
@@ -549,6 +540,45 @@
   </si>
   <si>
     <t>2022-2024</t>
+  </si>
+  <si>
+    <t>10-09-10-11</t>
+  </si>
+  <si>
+    <t>10-07</t>
+  </si>
+  <si>
+    <t>mimi</t>
+  </si>
+  <si>
+    <t>Isyani</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>1212121</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>Mr-Mrs-Mr-Miss</t>
   </si>
 </sst>
 </file>
@@ -3055,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D189398-AC14-472A-95D4-A13A409E1577}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3104,37 +3134,37 @@
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="L2" s="4">
         <v>2</v>
@@ -3142,78 +3172,78 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2</v>
+        <v>149</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3225,8 +3255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93896A42-6ECB-4B7B-8825-A41A71026945}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3316,37 +3346,37 @@
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>76</v>
@@ -3396,37 +3426,37 @@
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>133</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>81</v>

--- a/Data Collection/Data_Management_.xlsx
+++ b/Data Collection/Data_Management_.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afrizaloky\Katalon Studio\Assignment Katalon\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BAB11B-45B1-4C52-83D1-3193E6A48AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFEE99B-FA38-4580-9656-0A081AD646E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataCustomer" sheetId="1" r:id="rId1"/>
     <sheet name="Test" sheetId="4" r:id="rId2"/>
-    <sheet name="ALL" sheetId="5" r:id="rId3"/>
-    <sheet name="FlightInformation" sheetId="2" r:id="rId4"/>
-    <sheet name="DataSignUp" sheetId="3" r:id="rId5"/>
+    <sheet name="FlightInformation" sheetId="2" r:id="rId3"/>
+    <sheet name="DataSignUp" sheetId="3" r:id="rId4"/>
+    <sheet name="ALL" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="186">
   <si>
     <t>Title</t>
   </si>
@@ -311,27 +311,18 @@
     <t>kuy</t>
   </si>
   <si>
-    <t>mk@glasacc.com</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>kas@gmasdaspdsa.com</t>
-  </si>
-  <si>
     <t>mae</t>
   </si>
   <si>
     <t>mun</t>
   </si>
   <si>
-    <t>lpaso@gmail.com</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -579,6 +570,18 @@
   </si>
   <si>
     <t>Mr-Mrs-Mr-Miss</t>
+  </si>
+  <si>
+    <t>rinarcussss@gmail.com</t>
+  </si>
+  <si>
+    <t>mkaa@glasacc.com</t>
+  </si>
+  <si>
+    <t>kassss@gmasdaspdsa.com</t>
+  </si>
+  <si>
+    <t>lpasooo@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-m\-yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +621,12 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -636,10 +645,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -660,8 +670,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -878,7 +890,7 @@
   <dimension ref="A1:L995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L5"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -904,34 +916,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1</v>
@@ -954,7 +966,7 @@
         <v>180710014</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G2" s="8">
         <v>31</v>
@@ -2079,37 +2091,37 @@
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3085,7 +3097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D189398-AC14-472A-95D4-A13A409E1577}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3099,37 +3111,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -3137,34 +3149,34 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="L2" s="4">
         <v>2</v>
@@ -3172,37 +3184,37 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="L3" s="4">
         <v>2</v>
@@ -3210,40 +3222,40 @@
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3252,424 +3264,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93896A42-6ECB-4B7B-8825-A41A71026945}">
-  <dimension ref="A1:Z5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="18.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R2" s="2">
-        <v>2</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>8798132</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>44476</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>2121121</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5">
-        <v>180709969</v>
-      </c>
-      <c r="F4" s="5">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="5">
-        <v>11</v>
-      </c>
-      <c r="J4" s="5">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5">
-        <v>2021</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>12122121</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5">
-        <v>180709878</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2001</v>
-      </c>
-      <c r="I5" s="5">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5">
-        <v>27</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2021</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>44481</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>11212111</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
@@ -3691,22 +3285,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>73</v>
@@ -3732,7 +3326,7 @@
         <v>79</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>80</v>
@@ -3761,7 +3355,7 @@
         <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3" s="3">
         <v>44476</v>
@@ -3790,7 +3384,7 @@
         <v>87</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>80</v>
@@ -3819,7 +3413,7 @@
         <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F5" s="3">
         <v>44481</v>
@@ -4836,7 +4430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4844,29 +4438,29 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,8 +4473,8 @@
       <c r="C2" s="2">
         <v>8798132</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>90</v>
+      <c r="D2" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>91</v>
@@ -4899,8 +4493,8 @@
       <c r="C3" s="2">
         <v>2121121</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>95</v>
+      <c r="D3" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -4911,16 +4505,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C4" s="2">
         <v>12122121</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>98</v>
+      <c r="D4" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -4931,21 +4525,445 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2">
         <v>11212111</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>101</v>
+      <c r="D5" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{EC2153D6-D7DD-4DD3-8F29-99861537E2D0}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{C48EBCDE-F1D6-4CA0-A90C-D72F66A894DC}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{52C30496-FC22-43FC-9E96-08881AA798F1}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{BF3A6FA3-549A-4F3C-9E5E-A0026D257D1B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93896A42-6ECB-4B7B-8825-A41A71026945}">
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>8798132</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>44476</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>2121121</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>180709969</v>
+      </c>
+      <c r="F4" s="5">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="5">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2021</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>12122121</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
+        <v>180709878</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>44481</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>11212111</v>
+      </c>
+      <c r="Z5" s="2" t="s">
         <v>92</v>
       </c>
     </row>
